--- a/Assignment4/LCDataDictionary.xlsx
+++ b/Assignment4/LCDataDictionary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22624"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clark\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zargh\Documents\GitHub\DM-SL\Assignment4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5AE3E87-5B3C-4542-BD6C-64B02E94A3F7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FEF0F41-29FC-4AA6-A0C1-ACB3F11C4793}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoanStats" sheetId="3" r:id="rId1"/>
@@ -1938,105 +1938,105 @@
     <xf numFmtId="0" fontId="16" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="92">
-    <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Bueno" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Celda de comprobación" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Celda vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Encabezado 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Encabezado 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Énfasis1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Énfasis2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Énfasis3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Énfasis4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Énfasis5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Énfasis6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Hipervínculo" xfId="42" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="44" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="46" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="48" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="50" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="52" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="54" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="56" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="58" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="60" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="62" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="64" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="66" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="68" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="70" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="72" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="74" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="76" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="78" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="80" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="82" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="84" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="86" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="88" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="90" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="43" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="45" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="47" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="49" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="51" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="53" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="55" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="57" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="59" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="61" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="63" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="65" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="67" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="69" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="71" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="73" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="75" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="77" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="79" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="81" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="83" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="85" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="87" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="89" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="91" builtinId="9" hidden="1"/>
-    <cellStyle name="Incorrecto" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="61" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="63" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="65" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="67" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="69" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="71" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="73" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="75" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="77" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="79" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="81" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="83" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="85" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="87" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="89" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="91" builtinId="9" hidden="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="44" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="46" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="50" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="52" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="54" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="56" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="58" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="60" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="62" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="64" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="66" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="68" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="70" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="72" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="74" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="76" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="78" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="80" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="82" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="84" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="86" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="88" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="90" builtinId="8" hidden="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Notas" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Salida" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Texto de advertencia" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Texto explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2348,7 +2348,7 @@
       <selection pane="bottomLeft" activeCell="A103" sqref="A103:B103"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="34" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="196.6328125" bestFit="1" customWidth="1"/>
@@ -3660,40 +3660,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35AEFD67-EA94-4BD9-B426-7310000120EA}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="25.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="30" t="s">
         <v>392</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="32" t="s">
         <v>399</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="32" t="s">
         <v>383</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
@@ -3832,7 +3832,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" s="32" t="s">
+      <c r="A20" s="31" t="s">
         <v>32</v>
       </c>
       <c r="B20" t="s">
@@ -3856,7 +3856,7 @@
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" s="32" t="s">
+      <c r="A23" s="31" t="s">
         <v>128</v>
       </c>
       <c r="B23" t="s">
@@ -3940,12 +3940,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F123"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A111" sqref="A111:B111"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B69" sqref="B69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
     <col min="2" max="2" width="235.453125" bestFit="1" customWidth="1"/>
@@ -5126,7 +5126,7 @@
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="20.6328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="225.6328125" customWidth="1"/>
